--- a/statistics/Rで学ぶ確率統計学−一変量統計編/sampledata.xlsx
+++ b/statistics/Rで学ぶ確率統計学−一変量統計編/sampledata.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10713"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B558B243-FB70-4E43-8359-3FE6F81219E0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1BACD6E-B933-E742-8587-8A44C49969D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="150" windowWidth="14810" windowHeight="7970" tabRatio="729" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="729" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Math&amp;Phys" sheetId="2" r:id="rId1"/>
@@ -17,12 +17,22 @@
     <sheet name="statistics test" sheetId="10" r:id="rId7"/>
     <sheet name="Earthquake" sheetId="11" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="50">
   <si>
     <t>math</t>
     <phoneticPr fontId="2"/>
@@ -337,7 +347,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -377,6 +387,9 @@
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -721,7 +734,7 @@
       <selection activeCell="B2" sqref="B2:B148"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData>
     <row r="2" spans="2:3">
       <c r="B2" s="2" t="s">
@@ -1909,11 +1922,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C2:C149"/>
   <sheetViews>
-    <sheetView topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="P142" sqref="P142"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData>
     <row r="2" spans="3:3">
       <c r="C2" s="2" t="s">
@@ -1921,735 +1934,737 @@
       </c>
     </row>
     <row r="3" spans="3:3">
-      <c r="C3" s="3">
+      <c r="C3" s="17">
         <v>90</v>
       </c>
     </row>
     <row r="4" spans="3:3">
-      <c r="C4" s="3">
+      <c r="C4" s="17">
         <v>65</v>
       </c>
     </row>
     <row r="5" spans="3:3">
-      <c r="C5" s="3">
+      <c r="C5" s="17">
         <v>60</v>
       </c>
     </row>
     <row r="6" spans="3:3">
-      <c r="C6" s="3">
+      <c r="C6" s="17">
         <v>75</v>
       </c>
     </row>
     <row r="7" spans="3:3">
-      <c r="C7" s="3">
+      <c r="C7" s="17">
         <v>50</v>
       </c>
     </row>
     <row r="8" spans="3:3">
-      <c r="C8" s="3">
+      <c r="C8" s="17">
         <v>60</v>
       </c>
     </row>
     <row r="9" spans="3:3">
-      <c r="C9" s="3">
+      <c r="C9" s="17">
         <v>25</v>
       </c>
     </row>
     <row r="10" spans="3:3">
-      <c r="C10" s="3">
+      <c r="C10" s="17">
         <v>35</v>
       </c>
     </row>
     <row r="11" spans="3:3">
-      <c r="C11" s="3">
+      <c r="C11" s="17">
         <v>85</v>
       </c>
     </row>
     <row r="12" spans="3:3">
-      <c r="C12" s="3">
+      <c r="C12" s="17">
         <v>100</v>
       </c>
     </row>
     <row r="13" spans="3:3">
-      <c r="C13" s="3">
+      <c r="C13" s="17">
         <v>45</v>
       </c>
     </row>
     <row r="14" spans="3:3">
-      <c r="C14" s="3">
+      <c r="C14" s="17">
         <v>95</v>
       </c>
     </row>
     <row r="15" spans="3:3">
-      <c r="C15" s="3"/>
+      <c r="C15" s="17" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="16" spans="3:3">
-      <c r="C16" s="3">
+      <c r="C16" s="17">
         <v>80</v>
       </c>
     </row>
     <row r="17" spans="3:3">
-      <c r="C17" s="3">
+      <c r="C17" s="17">
         <v>80</v>
       </c>
     </row>
     <row r="18" spans="3:3">
-      <c r="C18" s="3">
+      <c r="C18" s="17">
         <v>95</v>
       </c>
     </row>
     <row r="19" spans="3:3">
-      <c r="C19" s="3">
+      <c r="C19" s="17">
         <v>55</v>
       </c>
     </row>
     <row r="20" spans="3:3">
-      <c r="C20" s="3">
+      <c r="C20" s="17">
         <v>55</v>
       </c>
     </row>
     <row r="21" spans="3:3">
-      <c r="C21" s="3">
+      <c r="C21" s="17">
         <v>65</v>
       </c>
     </row>
     <row r="22" spans="3:3">
-      <c r="C22" s="3">
+      <c r="C22" s="17">
         <v>50</v>
       </c>
     </row>
     <row r="23" spans="3:3">
-      <c r="C23" s="3">
+      <c r="C23" s="17">
         <v>65</v>
       </c>
     </row>
     <row r="24" spans="3:3">
-      <c r="C24" s="3">
+      <c r="C24" s="17">
         <v>40</v>
       </c>
     </row>
     <row r="25" spans="3:3">
-      <c r="C25" s="3">
+      <c r="C25" s="17">
         <v>85</v>
       </c>
     </row>
     <row r="26" spans="3:3">
-      <c r="C26" s="3">
+      <c r="C26" s="17">
         <v>70</v>
       </c>
     </row>
     <row r="27" spans="3:3">
-      <c r="C27" s="3">
+      <c r="C27" s="17">
         <v>65</v>
       </c>
     </row>
     <row r="28" spans="3:3">
-      <c r="C28" s="3">
+      <c r="C28" s="17">
         <v>65</v>
       </c>
     </row>
     <row r="29" spans="3:3">
-      <c r="C29" s="3">
+      <c r="C29" s="17">
         <v>15</v>
       </c>
     </row>
     <row r="30" spans="3:3">
-      <c r="C30" s="3">
+      <c r="C30" s="17">
         <v>65</v>
       </c>
     </row>
     <row r="31" spans="3:3">
-      <c r="C31" s="3">
+      <c r="C31" s="17">
         <v>75</v>
       </c>
     </row>
     <row r="32" spans="3:3">
-      <c r="C32" s="3">
+      <c r="C32" s="17">
         <v>60</v>
       </c>
     </row>
     <row r="33" spans="3:3">
-      <c r="C33" s="3">
+      <c r="C33" s="17">
         <v>75</v>
       </c>
     </row>
     <row r="34" spans="3:3">
-      <c r="C34" s="3">
+      <c r="C34" s="17">
         <v>25</v>
       </c>
     </row>
     <row r="35" spans="3:3">
-      <c r="C35" s="3">
+      <c r="C35" s="17">
         <v>65</v>
       </c>
     </row>
     <row r="36" spans="3:3">
-      <c r="C36" s="3">
+      <c r="C36" s="17">
         <v>55</v>
       </c>
     </row>
     <row r="37" spans="3:3">
-      <c r="C37" s="3">
+      <c r="C37" s="17">
         <v>40</v>
       </c>
     </row>
     <row r="38" spans="3:3">
-      <c r="C38" s="3">
+      <c r="C38" s="17">
         <v>70</v>
       </c>
     </row>
     <row r="39" spans="3:3">
-      <c r="C39" s="3">
+      <c r="C39" s="17">
         <v>60</v>
       </c>
     </row>
     <row r="40" spans="3:3">
-      <c r="C40" s="3">
+      <c r="C40" s="17">
         <v>60</v>
       </c>
     </row>
     <row r="41" spans="3:3">
-      <c r="C41" s="3">
+      <c r="C41" s="17">
         <v>35</v>
       </c>
     </row>
     <row r="42" spans="3:3">
-      <c r="C42" s="3">
+      <c r="C42" s="17">
         <v>75</v>
       </c>
     </row>
     <row r="43" spans="3:3">
-      <c r="C43" s="3">
+      <c r="C43" s="17">
         <v>45</v>
       </c>
     </row>
     <row r="44" spans="3:3">
-      <c r="C44" s="3">
+      <c r="C44" s="17">
         <v>60</v>
       </c>
     </row>
     <row r="45" spans="3:3">
-      <c r="C45" s="3">
+      <c r="C45" s="17">
         <v>55</v>
       </c>
     </row>
     <row r="46" spans="3:3">
-      <c r="C46" s="3">
+      <c r="C46" s="17">
         <v>75</v>
       </c>
     </row>
     <row r="47" spans="3:3">
-      <c r="C47" s="3">
+      <c r="C47" s="17">
         <v>75</v>
       </c>
     </row>
     <row r="48" spans="3:3">
-      <c r="C48" s="3">
+      <c r="C48" s="17">
         <v>90</v>
       </c>
     </row>
     <row r="49" spans="3:3">
-      <c r="C49" s="3">
+      <c r="C49" s="17">
         <v>35</v>
       </c>
     </row>
     <row r="50" spans="3:3">
-      <c r="C50" s="3">
+      <c r="C50" s="17">
         <v>20</v>
       </c>
     </row>
     <row r="51" spans="3:3">
-      <c r="C51" s="3">
+      <c r="C51" s="17">
         <v>90</v>
       </c>
     </row>
     <row r="52" spans="3:3">
-      <c r="C52" s="3">
+      <c r="C52" s="17">
         <v>100</v>
       </c>
     </row>
     <row r="53" spans="3:3">
-      <c r="C53" s="3">
+      <c r="C53" s="17">
         <v>65</v>
       </c>
     </row>
     <row r="54" spans="3:3">
-      <c r="C54" s="3">
+      <c r="C54" s="17">
         <v>15</v>
       </c>
     </row>
     <row r="55" spans="3:3">
-      <c r="C55" s="3">
+      <c r="C55" s="17">
         <v>80</v>
       </c>
     </row>
     <row r="56" spans="3:3">
-      <c r="C56" s="3">
+      <c r="C56" s="17">
         <v>80</v>
       </c>
     </row>
     <row r="57" spans="3:3">
-      <c r="C57" s="3">
+      <c r="C57" s="17">
         <v>85</v>
       </c>
     </row>
     <row r="58" spans="3:3">
-      <c r="C58" s="3">
+      <c r="C58" s="17">
         <v>25</v>
       </c>
     </row>
     <row r="59" spans="3:3">
-      <c r="C59" s="3">
+      <c r="C59" s="17">
         <v>10</v>
       </c>
     </row>
     <row r="60" spans="3:3">
-      <c r="C60" s="3">
+      <c r="C60" s="17">
         <v>95</v>
       </c>
     </row>
     <row r="61" spans="3:3">
-      <c r="C61" s="3">
+      <c r="C61" s="17">
         <v>45</v>
       </c>
     </row>
     <row r="62" spans="3:3">
-      <c r="C62" s="3">
+      <c r="C62" s="17">
         <v>55</v>
       </c>
     </row>
     <row r="63" spans="3:3">
-      <c r="C63" s="3">
+      <c r="C63" s="17">
         <v>80</v>
       </c>
     </row>
     <row r="64" spans="3:3">
-      <c r="C64" s="3">
+      <c r="C64" s="17">
         <v>80</v>
       </c>
     </row>
     <row r="65" spans="3:3">
-      <c r="C65" s="3">
+      <c r="C65" s="17">
         <v>40</v>
       </c>
     </row>
     <row r="66" spans="3:3">
-      <c r="C66" s="3">
+      <c r="C66" s="17">
         <v>90</v>
       </c>
     </row>
     <row r="67" spans="3:3">
-      <c r="C67" s="3">
+      <c r="C67" s="17">
         <v>95</v>
       </c>
     </row>
     <row r="68" spans="3:3">
-      <c r="C68" s="3">
+      <c r="C68" s="17">
         <v>90</v>
       </c>
     </row>
     <row r="69" spans="3:3">
-      <c r="C69" s="3">
+      <c r="C69" s="17">
         <v>70</v>
       </c>
     </row>
     <row r="70" spans="3:3">
-      <c r="C70" s="3">
+      <c r="C70" s="17">
         <v>80</v>
       </c>
     </row>
     <row r="71" spans="3:3">
-      <c r="C71" s="3">
+      <c r="C71" s="17">
         <v>25</v>
       </c>
     </row>
     <row r="72" spans="3:3">
-      <c r="C72" s="3">
+      <c r="C72" s="17">
         <v>65</v>
       </c>
     </row>
     <row r="73" spans="3:3">
-      <c r="C73" s="3">
+      <c r="C73" s="17">
         <v>30</v>
       </c>
     </row>
     <row r="74" spans="3:3">
-      <c r="C74" s="3">
+      <c r="C74" s="17">
         <v>60</v>
       </c>
     </row>
     <row r="75" spans="3:3">
-      <c r="C75" s="3">
+      <c r="C75" s="17">
         <v>25</v>
       </c>
     </row>
     <row r="76" spans="3:3">
-      <c r="C76" s="3">
+      <c r="C76" s="17">
         <v>35</v>
       </c>
     </row>
     <row r="77" spans="3:3">
-      <c r="C77" s="3">
+      <c r="C77" s="17">
         <v>20</v>
       </c>
     </row>
     <row r="78" spans="3:3">
-      <c r="C78" s="3">
+      <c r="C78" s="17">
         <v>70</v>
       </c>
     </row>
     <row r="79" spans="3:3">
-      <c r="C79" s="3">
+      <c r="C79" s="17">
         <v>100</v>
       </c>
     </row>
     <row r="80" spans="3:3">
-      <c r="C80" s="3">
+      <c r="C80" s="17">
         <v>50</v>
       </c>
     </row>
     <row r="81" spans="3:3">
-      <c r="C81" s="3">
+      <c r="C81" s="17">
         <v>60</v>
       </c>
     </row>
     <row r="82" spans="3:3">
-      <c r="C82" s="3">
+      <c r="C82" s="17">
         <v>50</v>
       </c>
     </row>
     <row r="83" spans="3:3">
-      <c r="C83" s="3">
+      <c r="C83" s="17">
         <v>90</v>
       </c>
     </row>
     <row r="84" spans="3:3">
-      <c r="C84" s="3">
+      <c r="C84" s="17">
         <v>65</v>
       </c>
     </row>
     <row r="85" spans="3:3">
-      <c r="C85" s="3">
+      <c r="C85" s="17">
         <v>45</v>
       </c>
     </row>
     <row r="86" spans="3:3">
-      <c r="C86" s="3">
+      <c r="C86" s="17">
         <v>35</v>
       </c>
     </row>
     <row r="87" spans="3:3">
-      <c r="C87" s="3">
+      <c r="C87" s="17">
         <v>50</v>
       </c>
     </row>
     <row r="88" spans="3:3">
-      <c r="C88" s="3">
+      <c r="C88" s="17">
         <v>85</v>
       </c>
     </row>
     <row r="89" spans="3:3">
-      <c r="C89" s="3">
+      <c r="C89" s="17">
         <v>30</v>
       </c>
     </row>
     <row r="90" spans="3:3">
-      <c r="C90" s="3">
+      <c r="C90" s="17">
         <v>50</v>
       </c>
     </row>
     <row r="91" spans="3:3">
-      <c r="C91" s="3">
+      <c r="C91" s="17">
         <v>70</v>
       </c>
     </row>
     <row r="92" spans="3:3">
-      <c r="C92" s="3">
+      <c r="C92" s="17">
         <v>85</v>
       </c>
     </row>
     <row r="93" spans="3:3">
-      <c r="C93" s="3">
+      <c r="C93" s="17">
         <v>85</v>
       </c>
     </row>
     <row r="94" spans="3:3">
-      <c r="C94" s="3">
+      <c r="C94" s="17">
         <v>75</v>
       </c>
     </row>
     <row r="95" spans="3:3">
-      <c r="C95" s="3">
+      <c r="C95" s="17">
         <v>80</v>
       </c>
     </row>
     <row r="96" spans="3:3">
-      <c r="C96" s="3">
+      <c r="C96" s="17">
         <v>40</v>
       </c>
     </row>
     <row r="97" spans="3:3">
-      <c r="C97" s="3">
+      <c r="C97" s="17">
         <v>60</v>
       </c>
     </row>
     <row r="98" spans="3:3">
-      <c r="C98" s="3">
+      <c r="C98" s="17">
         <v>70</v>
       </c>
     </row>
     <row r="99" spans="3:3">
-      <c r="C99" s="3">
+      <c r="C99" s="17">
         <v>80</v>
       </c>
     </row>
     <row r="100" spans="3:3">
-      <c r="C100" s="3">
+      <c r="C100" s="17">
         <v>95</v>
       </c>
     </row>
     <row r="101" spans="3:3">
-      <c r="C101" s="3">
+      <c r="C101" s="17">
         <v>50</v>
       </c>
     </row>
     <row r="102" spans="3:3">
-      <c r="C102" s="3">
+      <c r="C102" s="17">
         <v>40</v>
       </c>
     </row>
     <row r="103" spans="3:3">
-      <c r="C103" s="3">
+      <c r="C103" s="17">
         <v>25</v>
       </c>
     </row>
     <row r="104" spans="3:3">
-      <c r="C104" s="3">
+      <c r="C104" s="17">
         <v>60</v>
       </c>
     </row>
     <row r="105" spans="3:3">
-      <c r="C105" s="3">
+      <c r="C105" s="17">
         <v>35</v>
       </c>
     </row>
     <row r="106" spans="3:3">
-      <c r="C106" s="3">
+      <c r="C106" s="17">
         <v>30</v>
       </c>
     </row>
     <row r="107" spans="3:3">
-      <c r="C107" s="3">
+      <c r="C107" s="17">
         <v>45</v>
       </c>
     </row>
     <row r="108" spans="3:3">
-      <c r="C108" s="3">
+      <c r="C108" s="17">
         <v>35</v>
       </c>
     </row>
     <row r="109" spans="3:3">
-      <c r="C109" s="3">
+      <c r="C109" s="17">
         <v>70</v>
       </c>
     </row>
     <row r="110" spans="3:3">
-      <c r="C110" s="3">
+      <c r="C110" s="17">
         <v>75</v>
       </c>
     </row>
     <row r="111" spans="3:3">
-      <c r="C111" s="3">
+      <c r="C111" s="17">
         <v>55</v>
       </c>
     </row>
     <row r="112" spans="3:3">
-      <c r="C112" s="3">
+      <c r="C112" s="17">
         <v>40</v>
       </c>
     </row>
     <row r="113" spans="3:3">
-      <c r="C113" s="3">
+      <c r="C113" s="17">
         <v>100</v>
       </c>
     </row>
     <row r="114" spans="3:3">
-      <c r="C114" s="3">
+      <c r="C114" s="17">
         <v>50</v>
       </c>
     </row>
     <row r="115" spans="3:3">
-      <c r="C115" s="3">
+      <c r="C115" s="17">
         <v>55</v>
       </c>
     </row>
     <row r="116" spans="3:3">
-      <c r="C116" s="3">
+      <c r="C116" s="17">
         <v>90</v>
       </c>
     </row>
     <row r="117" spans="3:3">
-      <c r="C117" s="3">
+      <c r="C117" s="17">
         <v>95</v>
       </c>
     </row>
     <row r="118" spans="3:3">
-      <c r="C118" s="3">
+      <c r="C118" s="17">
         <v>60</v>
       </c>
     </row>
     <row r="119" spans="3:3">
-      <c r="C119" s="3">
+      <c r="C119" s="17">
         <v>70</v>
       </c>
     </row>
     <row r="120" spans="3:3">
-      <c r="C120" s="3">
+      <c r="C120" s="17">
         <v>80</v>
       </c>
     </row>
     <row r="121" spans="3:3">
-      <c r="C121" s="3">
+      <c r="C121" s="17">
         <v>70</v>
       </c>
     </row>
     <row r="122" spans="3:3">
-      <c r="C122" s="3">
+      <c r="C122" s="17">
         <v>45</v>
       </c>
     </row>
     <row r="123" spans="3:3">
-      <c r="C123" s="3">
+      <c r="C123" s="17">
         <v>55</v>
       </c>
     </row>
     <row r="124" spans="3:3">
-      <c r="C124" s="3">
+      <c r="C124" s="17">
         <v>75</v>
       </c>
     </row>
     <row r="125" spans="3:3">
-      <c r="C125" s="3">
+      <c r="C125" s="17">
         <v>45</v>
       </c>
     </row>
     <row r="126" spans="3:3">
-      <c r="C126" s="3">
+      <c r="C126" s="17">
         <v>65</v>
       </c>
     </row>
     <row r="127" spans="3:3">
-      <c r="C127" s="3">
+      <c r="C127" s="17">
         <v>30</v>
       </c>
     </row>
     <row r="128" spans="3:3">
-      <c r="C128" s="3">
+      <c r="C128" s="17">
         <v>25</v>
       </c>
     </row>
     <row r="129" spans="3:3">
-      <c r="C129" s="3">
+      <c r="C129" s="17">
         <v>85</v>
       </c>
     </row>
     <row r="130" spans="3:3">
-      <c r="C130" s="3">
+      <c r="C130" s="17">
         <v>90</v>
       </c>
     </row>
     <row r="131" spans="3:3">
-      <c r="C131" s="3">
+      <c r="C131" s="17">
         <v>90</v>
       </c>
     </row>
     <row r="132" spans="3:3">
-      <c r="C132" s="3">
+      <c r="C132" s="17">
         <v>60</v>
       </c>
     </row>
     <row r="133" spans="3:3">
-      <c r="C133" s="3">
+      <c r="C133" s="17">
         <v>85</v>
       </c>
     </row>
     <row r="134" spans="3:3">
-      <c r="C134" s="3">
+      <c r="C134" s="17">
         <v>20</v>
       </c>
     </row>
     <row r="135" spans="3:3">
-      <c r="C135" s="3">
+      <c r="C135" s="17">
         <v>75</v>
       </c>
     </row>
     <row r="136" spans="3:3">
-      <c r="C136" s="3">
+      <c r="C136" s="17">
         <v>70</v>
       </c>
     </row>
     <row r="137" spans="3:3">
-      <c r="C137" s="3">
+      <c r="C137" s="17">
         <v>75</v>
       </c>
     </row>
     <row r="138" spans="3:3">
-      <c r="C138" s="3">
+      <c r="C138" s="17">
         <v>50</v>
       </c>
     </row>
     <row r="139" spans="3:3">
-      <c r="C139" s="3">
+      <c r="C139" s="17">
         <v>90</v>
       </c>
     </row>
     <row r="140" spans="3:3">
-      <c r="C140" s="3">
+      <c r="C140" s="17">
         <v>60</v>
       </c>
     </row>
     <row r="141" spans="3:3">
-      <c r="C141" s="3">
+      <c r="C141" s="17">
         <v>15</v>
       </c>
     </row>
     <row r="142" spans="3:3">
-      <c r="C142" s="3">
+      <c r="C142" s="17">
         <v>90</v>
       </c>
     </row>
     <row r="143" spans="3:3">
-      <c r="C143" s="3">
+      <c r="C143" s="17">
         <v>75</v>
       </c>
     </row>
     <row r="144" spans="3:3">
-      <c r="C144" s="3">
+      <c r="C144" s="17">
         <v>70</v>
       </c>
     </row>
     <row r="145" spans="3:3">
-      <c r="C145" s="3">
+      <c r="C145" s="17">
         <v>35</v>
       </c>
     </row>
     <row r="146" spans="3:3">
-      <c r="C146" s="3">
+      <c r="C146" s="17">
         <v>95</v>
       </c>
     </row>
     <row r="147" spans="3:3">
-      <c r="C147" s="3">
+      <c r="C147" s="17">
         <v>60</v>
       </c>
     </row>
     <row r="148" spans="3:3">
-      <c r="C148" s="3">
+      <c r="C148" s="17">
         <v>45</v>
       </c>
     </row>
     <row r="149" spans="3:3">
-      <c r="C149" s="3">
+      <c r="C149" s="17">
         <v>55</v>
       </c>
     </row>
@@ -2667,7 +2682,7 @@
       <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
   </cols>
@@ -2771,7 +2786,7 @@
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData>
     <row r="3" spans="2:7">
       <c r="B3" s="4" t="s">
@@ -3095,7 +3110,7 @@
       <selection activeCell="F114" sqref="F114"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="2:4">
       <c r="B1" t="s">
@@ -4606,10 +4621,10 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="20.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3">
@@ -5232,11 +5247,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="B1:C127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+    <sheetView topLeftCell="A58" workbookViewId="0">
       <selection activeCell="K78" sqref="K78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="2:3">
       <c r="B1" t="s">
@@ -6202,9 +6217,9 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="3" max="3" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3">
